--- a/analysis/mails_01/P04_2/table_to_fill.xlsx
+++ b/analysis/mails_01/P04_2/table_to_fill.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t xml:space="preserve">fieldsample_barcode</t>
   </si>
@@ -63,10 +63,16 @@
     <t xml:space="preserve">soil</t>
   </si>
   <si>
+    <t xml:space="preserve">55.4702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1116</t>
+  </si>
+  <si>
     <t xml:space="preserve">agriculture</t>
   </si>
   <si>
-    <t xml:space="preserve">6000</t>
+    <t xml:space="preserve">AGRICULTURE</t>
   </si>
   <si>
     <t xml:space="preserve">askov</t>
@@ -78,9 +84,6 @@
     <t xml:space="preserve">Agriculture</t>
   </si>
   <si>
-    <t xml:space="preserve">Fields</t>
-  </si>
-  <si>
     <t xml:space="preserve">Agriculture - Aaskov</t>
   </si>
   <si>
@@ -135,9 +138,6 @@
     <t xml:space="preserve">MFD02857</t>
   </si>
   <si>
-    <t xml:space="preserve">askov </t>
-  </si>
-  <si>
     <t xml:space="preserve">MFD02858</t>
   </si>
   <si>
@@ -148,9 +148,6 @@
   </si>
   <si>
     <t xml:space="preserve">MFD02861</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> askov</t>
   </si>
   <si>
     <t xml:space="preserve">MFD02862</t>
@@ -630,680 +627,644 @@
         <v>15</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" t="n">
-        <v>55.4702</v>
-      </c>
-      <c r="E2" t="n">
-        <v>9.1116</v>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" t="s">
-        <v>21</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" t="n">
-        <v>55.4702</v>
-      </c>
-      <c r="E3" t="n">
-        <v>9.1116</v>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" t="s">
-        <v>21</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" t="n">
-        <v>55.4702</v>
-      </c>
-      <c r="E4" t="n">
-        <v>9.1116</v>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" t="s">
-        <v>21</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" t="n">
-        <v>55.4702</v>
-      </c>
-      <c r="E5" t="n">
-        <v>9.1116</v>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" t="s">
-        <v>21</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" t="n">
-        <v>55.4702</v>
-      </c>
-      <c r="E6" t="n">
-        <v>9.1116</v>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" t="s">
-        <v>21</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" t="n">
-        <v>55.4702</v>
-      </c>
-      <c r="E7" t="n">
-        <v>9.1116</v>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" t="s">
-        <v>21</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" t="n">
-        <v>55.4702</v>
-      </c>
-      <c r="E8" t="n">
-        <v>9.1116</v>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" t="s">
-        <v>21</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" t="n">
-        <v>55.4702</v>
-      </c>
-      <c r="E9" t="n">
-        <v>9.1116</v>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" t="s">
-        <v>21</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" t="n">
-        <v>55.4702</v>
-      </c>
-      <c r="E10" t="n">
-        <v>9.1116</v>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J10" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" t="s">
-        <v>21</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" t="n">
-        <v>55.4702</v>
-      </c>
-      <c r="E11" t="n">
-        <v>9.1116</v>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K11" t="s">
-        <v>21</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" t="n">
-        <v>55.4702</v>
-      </c>
-      <c r="E12" t="n">
-        <v>9.1116</v>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K12" t="s">
-        <v>21</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="2"/>
-      <c r="D13" t="n">
-        <v>55.4702</v>
-      </c>
-      <c r="E13" t="n">
-        <v>9.1116</v>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J13" t="s">
-        <v>20</v>
-      </c>
-      <c r="K13" t="s">
-        <v>21</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="2"/>
-      <c r="D14" t="n">
-        <v>55.4702</v>
-      </c>
-      <c r="E14" t="n">
-        <v>9.1116</v>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J14" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14" t="s">
-        <v>21</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="2"/>
-      <c r="D15" t="n">
-        <v>55.4702</v>
-      </c>
-      <c r="E15" t="n">
-        <v>9.1116</v>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s">
+        <v>17</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J15" t="s">
-        <v>20</v>
-      </c>
-      <c r="K15" t="s">
-        <v>21</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="2"/>
-      <c r="D16" t="n">
-        <v>55.4702</v>
-      </c>
-      <c r="E16" t="n">
-        <v>9.1116</v>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" t="s">
+        <v>17</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J16" t="s">
-        <v>20</v>
-      </c>
-      <c r="K16" t="s">
-        <v>21</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="2"/>
-      <c r="D17" t="n">
-        <v>55.4702</v>
-      </c>
-      <c r="E17" t="n">
-        <v>9.1116</v>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>17</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J17" t="s">
-        <v>20</v>
-      </c>
-      <c r="K17" t="s">
-        <v>21</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="2"/>
-      <c r="D18" t="n">
-        <v>55.4702</v>
-      </c>
-      <c r="E18" t="n">
-        <v>9.1116</v>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" t="s">
+        <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G18" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J18" t="s">
-        <v>20</v>
-      </c>
-      <c r="K18" t="s">
-        <v>21</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="2"/>
-      <c r="D19" t="n">
-        <v>55.4702</v>
-      </c>
-      <c r="E19" t="n">
-        <v>9.1116</v>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s">
+        <v>17</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H19" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I19" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J19" t="s">
-        <v>20</v>
-      </c>
-      <c r="K19" t="s">
-        <v>21</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20">
@@ -1314,34 +1275,32 @@
         <v>15</v>
       </c>
       <c r="C20" s="2"/>
-      <c r="D20" t="n">
-        <v>55.4702</v>
-      </c>
-      <c r="E20" t="n">
-        <v>9.1116</v>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" t="s">
+        <v>17</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J20" t="s">
-        <v>20</v>
-      </c>
-      <c r="K20" t="s">
-        <v>21</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21">
@@ -1352,34 +1311,32 @@
         <v>15</v>
       </c>
       <c r="C21" s="2"/>
-      <c r="D21" t="n">
-        <v>55.4702</v>
-      </c>
-      <c r="E21" t="n">
-        <v>9.1116</v>
+      <c r="D21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" t="s">
+        <v>17</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J21" t="s">
-        <v>20</v>
-      </c>
-      <c r="K21" t="s">
-        <v>21</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22">
@@ -1390,34 +1347,32 @@
         <v>15</v>
       </c>
       <c r="C22" s="2"/>
-      <c r="D22" t="n">
-        <v>55.4702</v>
-      </c>
-      <c r="E22" t="n">
-        <v>9.1116</v>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" t="s">
+        <v>17</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G22" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H22" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I22" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J22" t="s">
-        <v>20</v>
-      </c>
-      <c r="K22" t="s">
-        <v>21</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23">
@@ -1428,338 +1383,320 @@
         <v>15</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="D23" t="n">
-        <v>55.4702</v>
-      </c>
-      <c r="E23" t="n">
-        <v>9.1116</v>
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" t="s">
+        <v>17</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G23" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H23" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="I23" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J23" t="s">
-        <v>20</v>
-      </c>
-      <c r="K23" t="s">
-        <v>21</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B24" t="s">
         <v>15</v>
       </c>
       <c r="C24" s="2"/>
-      <c r="D24" t="n">
-        <v>55.4702</v>
-      </c>
-      <c r="E24" t="n">
-        <v>9.1116</v>
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" t="s">
+        <v>17</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G24" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H24" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I24" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J24" t="s">
-        <v>20</v>
-      </c>
-      <c r="K24" t="s">
-        <v>21</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B25" t="s">
         <v>15</v>
       </c>
       <c r="C25" s="2"/>
-      <c r="D25" t="n">
-        <v>55.4702</v>
-      </c>
-      <c r="E25" t="n">
-        <v>9.1116</v>
+      <c r="D25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" t="s">
+        <v>17</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G25" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H25" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I25" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J25" t="s">
-        <v>20</v>
-      </c>
-      <c r="K25" t="s">
-        <v>21</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B26" t="s">
         <v>15</v>
       </c>
       <c r="C26" s="2"/>
-      <c r="D26" t="n">
-        <v>55.4702</v>
-      </c>
-      <c r="E26" t="n">
-        <v>9.1116</v>
+      <c r="D26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" t="s">
+        <v>17</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G26" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H26" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I26" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J26" t="s">
-        <v>20</v>
-      </c>
-      <c r="K26" t="s">
-        <v>21</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B27" t="s">
         <v>15</v>
       </c>
       <c r="C27" s="2"/>
-      <c r="D27" t="n">
-        <v>55.4702</v>
-      </c>
-      <c r="E27" t="n">
-        <v>9.1116</v>
+      <c r="D27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" t="s">
+        <v>17</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G27" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H27" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I27" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J27" t="s">
-        <v>20</v>
-      </c>
-      <c r="K27" t="s">
-        <v>21</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B28" t="s">
         <v>15</v>
       </c>
       <c r="C28" s="2"/>
-      <c r="D28" t="n">
-        <v>55.4702</v>
-      </c>
-      <c r="E28" t="n">
-        <v>9.1116</v>
+      <c r="D28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" t="s">
+        <v>17</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G28" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I28" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J28" t="s">
-        <v>20</v>
-      </c>
-      <c r="K28" t="s">
-        <v>21</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B29" t="s">
         <v>15</v>
       </c>
       <c r="C29" s="2"/>
-      <c r="D29" t="n">
-        <v>55.4702</v>
-      </c>
-      <c r="E29" t="n">
-        <v>9.1116</v>
+      <c r="D29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" t="s">
+        <v>17</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G29" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H29" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I29" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J29" t="s">
-        <v>20</v>
-      </c>
-      <c r="K29" t="s">
-        <v>21</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B30" t="s">
         <v>15</v>
       </c>
       <c r="C30" s="2"/>
-      <c r="D30" t="n">
-        <v>55.4702</v>
-      </c>
-      <c r="E30" t="n">
-        <v>9.1116</v>
+      <c r="D30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" t="s">
+        <v>17</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G30" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I30" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J30" t="s">
-        <v>20</v>
-      </c>
-      <c r="K30" t="s">
-        <v>21</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B31" t="s">
         <v>15</v>
       </c>
       <c r="C31" s="2"/>
-      <c r="D31" t="n">
-        <v>55.4702</v>
-      </c>
-      <c r="E31" t="n">
-        <v>9.1116</v>
+      <c r="D31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" t="s">
+        <v>17</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G31" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H31" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I31" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J31" t="s">
-        <v>20</v>
-      </c>
-      <c r="K31" t="s">
-        <v>21</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1778,10 +1715,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2">
@@ -1789,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
@@ -1797,7 +1734,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4">
@@ -1805,7 +1742,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5">
@@ -1813,7 +1750,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6">
@@ -1821,7 +1758,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7">
@@ -1829,7 +1766,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
@@ -1837,7 +1774,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9">
@@ -1845,7 +1782,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10">
@@ -1853,7 +1790,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11">
@@ -1861,7 +1798,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12">
@@ -1869,7 +1806,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13">
@@ -1877,7 +1814,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14">
@@ -1885,7 +1822,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15">
@@ -1893,7 +1830,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
